--- a/Proyectos/proyectoBordado/DOCUMENTACION/DataBaseModel.xlsx
+++ b/Proyectos/proyectoBordado/DOCUMENTACION/DataBaseModel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26508"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fecc543124dac6b3/Documentos/LuisRuiz/COFACO/ProyectoBordado/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fecc543124dac6b3/Documentos/GitHub/PERSONAL/Proyectos/proyectoBordado/DOCUMENTACION/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="174" documentId="8_{66561824-C40C-400C-A289-84A4AC6FA7F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFEBCE25-4273-4633-B614-9FF8F2991480}"/>
+  <xr:revisionPtr revIDLastSave="176" documentId="8_{66561824-C40C-400C-A289-84A4AC6FA7F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{795400D0-1E76-47A6-ACB6-64938229C570}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{F5FC00E5-784C-4403-AF7F-5F9552C5FF07}"/>
   </bookViews>
@@ -186,7 +186,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,7 +290,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -586,13 +586,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{934D783E-A443-463D-AEC0-B8622779FBB6}">
-  <dimension ref="A4:J40"/>
+  <dimension ref="A4:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
@@ -604,7 +604,7 @@
     <col min="9" max="9" width="24.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -612,7 +612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -641,7 +641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -649,7 +649,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -666,7 +666,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -674,7 +674,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
@@ -682,7 +682,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -690,7 +690,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
@@ -698,7 +698,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -706,7 +706,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>19</v>
       </c>
@@ -717,7 +717,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -725,7 +725,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>21</v>
       </c>
@@ -733,11 +733,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -745,7 +745,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>3</v>
       </c>
@@ -756,7 +756,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -764,7 +764,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>25</v>
       </c>
@@ -773,7 +773,7 @@
       </c>
       <c r="D26" s="3"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -781,7 +781,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>3</v>
       </c>
@@ -792,17 +792,17 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="2:9">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="2:9">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>34</v>
       </c>
@@ -813,12 +813,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="2:9">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>38</v>
       </c>
@@ -829,12 +829,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="2:9">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="2:9">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>42</v>
       </c>
@@ -850,7 +850,7 @@
       <c r="F40" t="s">
         <v>44</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="3" t="s">
         <v>45</v>
       </c>
       <c r="H40" t="s">
@@ -859,6 +859,9 @@
       <c r="I40" t="s">
         <v>47</v>
       </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D43" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Proyectos/proyectoBordado/DOCUMENTACION/DataBaseModel.xlsx
+++ b/Proyectos/proyectoBordado/DOCUMENTACION/DataBaseModel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fecc543124dac6b3/Documentos/GitHub/PERSONAL/Proyectos/proyectoBordado/DOCUMENTACION/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="176" documentId="8_{66561824-C40C-400C-A289-84A4AC6FA7F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{795400D0-1E76-47A6-ACB6-64938229C570}"/>
+  <xr:revisionPtr revIDLastSave="182" documentId="8_{66561824-C40C-400C-A289-84A4AC6FA7F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D61C56C-982E-4792-A4AA-A92A8DF9B722}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{F5FC00E5-784C-4403-AF7F-5F9552C5FF07}"/>
+    <workbookView minimized="1" xWindow="225" yWindow="285" windowWidth="18000" windowHeight="9270" xr2:uid="{F5FC00E5-784C-4403-AF7F-5F9552C5FF07}"/>
   </bookViews>
   <sheets>
     <sheet name="DBM_Bordado" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
   <si>
     <t>OK</t>
   </si>
@@ -264,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -272,6 +272,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{934D783E-A443-463D-AEC0-B8622779FBB6}">
-  <dimension ref="A4:J43"/>
+  <dimension ref="A4:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,12 +798,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>34</v>
       </c>
@@ -813,12 +814,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>38</v>
       </c>
@@ -829,12 +830,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>42</v>
       </c>
@@ -850,17 +851,26 @@
       <c r="F40" t="s">
         <v>44</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="G40" t="s">
+        <v>38</v>
+      </c>
+      <c r="H40" t="s">
+        <v>34</v>
+      </c>
+      <c r="I40" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H40" t="s">
+      <c r="J40" t="s">
         <v>46</v>
       </c>
-      <c r="I40" t="s">
+      <c r="K40" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H41" s="3"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D43" s="3"/>
     </row>
   </sheetData>
